--- a/InputFiles/TC05_Canine_StudyOSA01-StudyType_Sex_SampSite_SampPathology.xlsx
+++ b/InputFiles/TC05_Canine_StudyOSA01-StudyType_Sex_SampSite_SampPathology.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davids3\newclone\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C19FD6-65F9-4112-98CD-74E5A5201213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1443D4A6-E78D-454B-ACAB-07C2136AD26B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
@@ -60,8 +60,14 @@
     <t>StudyFilesTab</t>
   </si>
   <si>
+    <t>TC05_Canine_StudyOSA01-StudyType_Sex_SampSite_SampPathology_Neo4jData.xlsx</t>
+  </si>
+  <si>
+    <t>TC05_Canine_StudyOSA01-StudyType_Sex_SampSite_SampPathology_WebData.xlsx</t>
+  </si>
+  <si>
     <t>MATCH (s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic), (c)&lt;--(diag:diagnosis), (samp:sample)--&gt;(c)
-WHERE s.clinical_study_designation IN ['OSA01'] and s.clinical_study_type in ['Transcriptomics']  and demo.sex in ['Female'] and samp.sample_site in ['Bone'] and samp.specific_sample_pathology in ['Osteoblastic Osteosarcoma']
+WHERE s.clinical_study_designation IN ['OSA01'] and s.clinical_study_type in ['Genomics']  and demo.sex in ['Female'] and samp.sample_site in ['Bone'] and samp.specific_sample_pathology in ['Osteoblastic Osteosarcoma']
 OPTIONAL MATCH (samp:sample)--&gt;(c)
 OPTIONAL MATCH (co:cohort)&lt;-[*]-(c)
 WITH DISTINCT c, s, demo, diag, co
@@ -80,7 +86,7 @@
   </si>
   <si>
     <t>MATCH (s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic), (c)&lt;--(diag:diagnosis), (samp:sample)--&gt;(c)
-WHERE s.clinical_study_designation  IN ['OSA01'] and s.clinical_study_type in ['Transcriptomics']  and demo.sex in ['Female'] and samp.sample_site in ['Bone'] and samp.specific_sample_pathology in ['Osteoblastic Osteosarcoma']
+WHERE s.clinical_study_designation  IN ['OSA01'] and s.clinical_study_type in ['Genomics']  and demo.sex in ['Female'] and samp.sample_site in ['Bone'] and samp.specific_sample_pathology in ['Osteoblastic Osteosarcoma']
 WITH DISTINCT samp AS samp, c, demo, diag
 RETURN  coalesce(samp.sample_id, '') AS `Sample ID`, 
         coalesce(c.case_id, '') AS `Case ID`, 
@@ -100,7 +106,7 @@
 WITH DISTINCT f, parent
 MATCH (f)-[*]-&gt;(c:case)&lt;--(demo:demographic)
 MATCH (s:study)&lt;-[*]-(c)&lt;--(diag:diagnosis) ,(r:registration)--&gt;(c), (samp:sample)--&gt;(c)
-WHERE s.clinical_study_designation  IN ['OSA01'] and s.clinical_study_type in ['Transcriptomics']  and demo.sex in ['Female'] and samp.sample_site in ['Bone'] and samp.specific_sample_pathology in ['Osteoblastic Osteosarcoma']
+WHERE s.clinical_study_designation  IN ['OSA01'] and s.clinical_study_type in ['Genomics']  and demo.sex in ['Female'] and samp.sample_site in ['Bone'] and samp.specific_sample_pathology in ['Osteoblastic Osteosarcoma']
 WITH DISTINCT f, parent, c, demo, diag, s,samp
 RETURN coalesce(f.file_name, '') AS `File Name`, 
         coalesce(f.file_type, '') AS `File Type`, 
@@ -116,7 +122,7 @@
   <si>
     <t>MATCH (f:file)--&gt;(s:study)
 MATCH (s)&lt;--(c:case)&lt;--(demo:demographic), (c)&lt;--(diag:diagnosis),(samp:sample)--&gt;(c)
-WHERE s.clinical_study_designation  IN ['OSA01'] and s.clinical_study_type in ['Transcriptomics']  and demo.sex in ['Female'] and samp.sample_site in ['Bone'] and samp.specific_sample_pathology in ['Osteoblastic Osteosarcoma']
+WHERE s.clinical_study_designation  IN ['OSA01'] and s.clinical_study_type in ['Genomics']  and demo.sex in ['Female'] and samp.sample_site in ['Bone'] and samp.specific_sample_pathology in ['Osteoblastic Osteosarcoma']
 WITH DISTINCT f, s,samp,c
 RETURN 
   coalesce(f.file_name, '') AS `File Name`,
@@ -128,26 +134,22 @@
   coalesce(s.clinical_study_designation,'') AS `Study Code`</t>
   </si>
   <si>
-    <t>TC05_Canine_StudyOSA01-StudyType_Sex_SampSite_SampPathology_Neo4jData.xlsx</t>
-  </si>
-  <si>
-    <t>TC05_Canine_StudyOSA01-StudyType_Sex_SampSite_SampPathology_WebData.xlsx</t>
-  </si>
-  <si>
-    <t>MATCH (s:study)
-MATCH (demo:demographic) 
-MATCH (diag:diagnosis)
-MATCH (p:program)&lt;-[*]-(s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic), (c)&lt;--(diag:diagnosis), (samp:sample)--&gt;(c)
-WHERE s.clinical_study_designation  IN ['OSA01'] and s.clinical_study_type in ['Transcriptomics']  and demo.sex in ['Female'] and samp.sample_site in ['Bone'] and samp.specific_sample_pathology in ['Osteoblastic Osteosarcoma']
+    <t>MATCH (p:program)&lt;-[*]-(s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic), (c)&lt;--(diag:diagnosis), (samp:sample)--&gt;(c)
+MATCH (f:file)-[*]-&gt;(c)
+WHERE s.clinical_study_designation  IN ['OSA01'] and s.clinical_study_type in ['Genomics']  and demo.sex in ['Female'] and samp.sample_site in ['Bone'] and samp.specific_sample_pathology in ['Osteoblastic Osteosarcoma']
 OPTIONAL MATCH (s)&lt;-[:member_of]-(c:case)
 OPTIONAL MATCH (c)&lt;-[:of_case]-(samp:sample)&lt;-[:of_sample]-(f:file)
 OPTIONAL MATCH (sf:file)--&gt;(s)
+OPTIONAL MATCH (f:file)-[*]-&gt;(c)
+OPTIONAL MATCH (samp:sample)--&gt;(c)
+OPTIONAL MATCH (diag:diagnosis)--&gt;(c)
 RETURN 
 count(DISTINCT(p)) as Programs,
 count(DISTINCT(s.clinical_study_designation)) as Studies,
 count(DISTINCT(c.case_id)) as Cases,
 count(DISTINCT(samp)) as Samples , 
-count(DISTINCT(f)) as CaseFiles , count(distinct sf) AS `Study Files`</t>
+count(DISTINCT(f)) as CaseFiles , 
+count(distinct sf) AS `Study Files`</t>
   </si>
 </sst>
 </file>
@@ -528,7 +530,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="19.5" x14ac:dyDescent="0.3"/>
@@ -567,67 +569,67 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="390" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="303.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="390" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="239.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="390" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="232.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/InputFiles/TC05_Canine_StudyOSA01-StudyType_Sex_SampSite_SampPathology.xlsx
+++ b/InputFiles/TC05_Canine_StudyOSA01-StudyType_Sex_SampSite_SampPathology.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davids3\newclone\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1443D4A6-E78D-454B-ACAB-07C2136AD26B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C19FD6-65F9-4112-98CD-74E5A5201213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
@@ -60,14 +60,8 @@
     <t>StudyFilesTab</t>
   </si>
   <si>
-    <t>TC05_Canine_StudyOSA01-StudyType_Sex_SampSite_SampPathology_Neo4jData.xlsx</t>
-  </si>
-  <si>
-    <t>TC05_Canine_StudyOSA01-StudyType_Sex_SampSite_SampPathology_WebData.xlsx</t>
-  </si>
-  <si>
     <t>MATCH (s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic), (c)&lt;--(diag:diagnosis), (samp:sample)--&gt;(c)
-WHERE s.clinical_study_designation IN ['OSA01'] and s.clinical_study_type in ['Genomics']  and demo.sex in ['Female'] and samp.sample_site in ['Bone'] and samp.specific_sample_pathology in ['Osteoblastic Osteosarcoma']
+WHERE s.clinical_study_designation IN ['OSA01'] and s.clinical_study_type in ['Transcriptomics']  and demo.sex in ['Female'] and samp.sample_site in ['Bone'] and samp.specific_sample_pathology in ['Osteoblastic Osteosarcoma']
 OPTIONAL MATCH (samp:sample)--&gt;(c)
 OPTIONAL MATCH (co:cohort)&lt;-[*]-(c)
 WITH DISTINCT c, s, demo, diag, co
@@ -86,7 +80,7 @@
   </si>
   <si>
     <t>MATCH (s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic), (c)&lt;--(diag:diagnosis), (samp:sample)--&gt;(c)
-WHERE s.clinical_study_designation  IN ['OSA01'] and s.clinical_study_type in ['Genomics']  and demo.sex in ['Female'] and samp.sample_site in ['Bone'] and samp.specific_sample_pathology in ['Osteoblastic Osteosarcoma']
+WHERE s.clinical_study_designation  IN ['OSA01'] and s.clinical_study_type in ['Transcriptomics']  and demo.sex in ['Female'] and samp.sample_site in ['Bone'] and samp.specific_sample_pathology in ['Osteoblastic Osteosarcoma']
 WITH DISTINCT samp AS samp, c, demo, diag
 RETURN  coalesce(samp.sample_id, '') AS `Sample ID`, 
         coalesce(c.case_id, '') AS `Case ID`, 
@@ -106,7 +100,7 @@
 WITH DISTINCT f, parent
 MATCH (f)-[*]-&gt;(c:case)&lt;--(demo:demographic)
 MATCH (s:study)&lt;-[*]-(c)&lt;--(diag:diagnosis) ,(r:registration)--&gt;(c), (samp:sample)--&gt;(c)
-WHERE s.clinical_study_designation  IN ['OSA01'] and s.clinical_study_type in ['Genomics']  and demo.sex in ['Female'] and samp.sample_site in ['Bone'] and samp.specific_sample_pathology in ['Osteoblastic Osteosarcoma']
+WHERE s.clinical_study_designation  IN ['OSA01'] and s.clinical_study_type in ['Transcriptomics']  and demo.sex in ['Female'] and samp.sample_site in ['Bone'] and samp.specific_sample_pathology in ['Osteoblastic Osteosarcoma']
 WITH DISTINCT f, parent, c, demo, diag, s,samp
 RETURN coalesce(f.file_name, '') AS `File Name`, 
         coalesce(f.file_type, '') AS `File Type`, 
@@ -122,7 +116,7 @@
   <si>
     <t>MATCH (f:file)--&gt;(s:study)
 MATCH (s)&lt;--(c:case)&lt;--(demo:demographic), (c)&lt;--(diag:diagnosis),(samp:sample)--&gt;(c)
-WHERE s.clinical_study_designation  IN ['OSA01'] and s.clinical_study_type in ['Genomics']  and demo.sex in ['Female'] and samp.sample_site in ['Bone'] and samp.specific_sample_pathology in ['Osteoblastic Osteosarcoma']
+WHERE s.clinical_study_designation  IN ['OSA01'] and s.clinical_study_type in ['Transcriptomics']  and demo.sex in ['Female'] and samp.sample_site in ['Bone'] and samp.specific_sample_pathology in ['Osteoblastic Osteosarcoma']
 WITH DISTINCT f, s,samp,c
 RETURN 
   coalesce(f.file_name, '') AS `File Name`,
@@ -134,22 +128,26 @@
   coalesce(s.clinical_study_designation,'') AS `Study Code`</t>
   </si>
   <si>
-    <t>MATCH (p:program)&lt;-[*]-(s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic), (c)&lt;--(diag:diagnosis), (samp:sample)--&gt;(c)
-MATCH (f:file)-[*]-&gt;(c)
-WHERE s.clinical_study_designation  IN ['OSA01'] and s.clinical_study_type in ['Genomics']  and demo.sex in ['Female'] and samp.sample_site in ['Bone'] and samp.specific_sample_pathology in ['Osteoblastic Osteosarcoma']
+    <t>TC05_Canine_StudyOSA01-StudyType_Sex_SampSite_SampPathology_Neo4jData.xlsx</t>
+  </si>
+  <si>
+    <t>TC05_Canine_StudyOSA01-StudyType_Sex_SampSite_SampPathology_WebData.xlsx</t>
+  </si>
+  <si>
+    <t>MATCH (s:study)
+MATCH (demo:demographic) 
+MATCH (diag:diagnosis)
+MATCH (p:program)&lt;-[*]-(s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic), (c)&lt;--(diag:diagnosis), (samp:sample)--&gt;(c)
+WHERE s.clinical_study_designation  IN ['OSA01'] and s.clinical_study_type in ['Transcriptomics']  and demo.sex in ['Female'] and samp.sample_site in ['Bone'] and samp.specific_sample_pathology in ['Osteoblastic Osteosarcoma']
 OPTIONAL MATCH (s)&lt;-[:member_of]-(c:case)
 OPTIONAL MATCH (c)&lt;-[:of_case]-(samp:sample)&lt;-[:of_sample]-(f:file)
 OPTIONAL MATCH (sf:file)--&gt;(s)
-OPTIONAL MATCH (f:file)-[*]-&gt;(c)
-OPTIONAL MATCH (samp:sample)--&gt;(c)
-OPTIONAL MATCH (diag:diagnosis)--&gt;(c)
 RETURN 
 count(DISTINCT(p)) as Programs,
 count(DISTINCT(s.clinical_study_designation)) as Studies,
 count(DISTINCT(c.case_id)) as Cases,
 count(DISTINCT(samp)) as Samples , 
-count(DISTINCT(f)) as CaseFiles , 
-count(distinct sf) AS `Study Files`</t>
+count(DISTINCT(f)) as CaseFiles , count(distinct sf) AS `Study Files`</t>
   </si>
 </sst>
 </file>
@@ -530,7 +528,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="19.5" x14ac:dyDescent="0.3"/>
@@ -569,67 +567,67 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="303.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="390" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="239.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="390" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="232.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="390" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/InputFiles/TC05_Canine_StudyOSA01-StudyType_Sex_SampSite_SampPathology.xlsx
+++ b/InputFiles/TC05_Canine_StudyOSA01-StudyType_Sex_SampSite_SampPathology.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davids3\newclone\Commons_Automation\InputFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davids3\newclone\Develope_2\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C19FD6-65F9-4112-98CD-74E5A5201213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E36FD06-F370-4905-8986-5BFEA9A9E727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="startup" sheetId="1" r:id="rId1"/>
@@ -60,27 +60,35 @@
     <t>StudyFilesTab</t>
   </si>
   <si>
-    <t>MATCH (s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic), (c)&lt;--(diag:diagnosis), (samp:sample)--&gt;(c)
-WHERE s.clinical_study_designation IN ['OSA01'] and s.clinical_study_type in ['Transcriptomics']  and demo.sex in ['Female'] and samp.sample_site in ['Bone'] and samp.specific_sample_pathology in ['Osteoblastic Osteosarcoma']
+    <t>TC05_Canine_StudyOSA01-StudyType_Sex_SampSite_SampPathology_Neo4jData.xlsx</t>
+  </si>
+  <si>
+    <t>TC05_Canine_StudyOSA01-StudyType_Sex_SampSite_SampPathology_WebData.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MATCH (s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic), (c)&lt;--(diag:diagnosis), (samp:sample)--&gt;(c)
+WHERE s.clinical_study_designation IN ['OSA01'] and s.clinical_study_type in ['Genomics']  and demo.sex in ['Female'] and samp.sample_site in ['Bone'] and samp.specific_sample_pathology in ['Osteoblastic Osteosarcoma']
 OPTIONAL MATCH (samp:sample)--&gt;(c)
 OPTIONAL MATCH (co:cohort)&lt;-[*]-(c)
-WITH DISTINCT c, s, demo, diag, co
-RETURN  coalesce(c.case_id, '') AS `Case ID` ,
-        coalesce(s.clinical_study_designation, '') AS `Study Code` ,
-        coalesce(s.clinical_study_type, '') AS  `Study Type`,
-        coalesce(demo.breed, '') AS Breed ,
-        coalesce(diag.disease_term, '') AS Diagnosis ,
-        coalesce(diag.stage_of_disease, '') AS `Stage of Disease` ,
-        coalesce(demo.patient_age_at_enrollment, '') AS Age ,
-        coalesce(demo.sex, '') AS Sex ,
-        coalesce(demo.neutered_indicator, '') AS `Neutered Status`,
-        coalesce(demo.weight, '') AS `Weight (kg)`,
-        coalesce(diag.best_response, '') AS `Response to Treatment`,
-coalesce(co.cohort_description, '') AS `Cohort`</t>
+WITH DISTINCT c, s, demo, diag, co, demo.patient_age_at_enrollment AS age, demo.weight as weight
+RETURN  
+       coalesce(c.case_id, '') AS `Case ID`,
+       coalesce(s.clinical_study_designation, '') AS `Study Code`,
+       coalesce(s.clinical_study_type, '') AS  `Study Type`,
+       coalesce(demo.breed, '') AS Breed ,
+       coalesce(diag.disease_term, '') AS Diagnosis ,
+       coalesce(diag.stage_of_disease, '') AS `Stage of Disease`,
+       CASE age % 1 WHEN 0 THEN apoc.convert.toInteger(age) ELSE age END AS Age,
+       coalesce(demo.sex, '') AS Sex,
+       coalesce(demo.neutered_indicator, '') AS `Neutered Status`,
+ coalesce(CASE weight % 1 WHEN 0 THEN apoc.convert.toInteger(weight) ELSE weight END, '') AS `Weight (kg)`,
+       coalesce(diag.best_response, '') AS `Response to Treatment`,
+       coalesce(co.cohort_description, '') AS `Cohort`
+</t>
   </si>
   <si>
     <t>MATCH (s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic), (c)&lt;--(diag:diagnosis), (samp:sample)--&gt;(c)
-WHERE s.clinical_study_designation  IN ['OSA01'] and s.clinical_study_type in ['Transcriptomics']  and demo.sex in ['Female'] and samp.sample_site in ['Bone'] and samp.specific_sample_pathology in ['Osteoblastic Osteosarcoma']
+WHERE s.clinical_study_designation  IN ['OSA01'] and s.clinical_study_type in ['Genomics']  and demo.sex in ['Female'] and samp.sample_site in ['Bone'] and samp.specific_sample_pathology in ['Osteoblastic Osteosarcoma']
 WITH DISTINCT samp AS samp, c, demo, diag
 RETURN  coalesce(samp.sample_id, '') AS `Sample ID`, 
         coalesce(c.case_id, '') AS `Case ID`, 
@@ -96,49 +104,38 @@
         coalesce(samp.sample_preservation, '') AS `Sample Preservation`</t>
   </si>
   <si>
-    <t>MATCH (f:file)--&gt;(parent)
-WITH DISTINCT f, parent
-MATCH (f)-[*]-&gt;(c:case)&lt;--(demo:demographic)
-MATCH (s:study)&lt;-[*]-(c)&lt;--(diag:diagnosis) ,(r:registration)--&gt;(c), (samp:sample)--&gt;(c)
-WHERE s.clinical_study_designation  IN ['OSA01'] and s.clinical_study_type in ['Transcriptomics']  and demo.sex in ['Female'] and samp.sample_site in ['Bone'] and samp.specific_sample_pathology in ['Osteoblastic Osteosarcoma']
-WITH DISTINCT f, parent, c, demo, diag, s,samp
-RETURN coalesce(f.file_name, '') AS `File Name`, 
-        coalesce(f.file_type, '') AS `File Type`, 
-        coalesce(labels(parent)[0], '') AS `Association`,
-        coalesce(f.file_description, '') AS `Description`,
-        coalesce(f.file_format, '') AS `File Format`,
-        coalesce(f.file_size, '') AS `Size`,
-        coalesce(c.case_id, '') AS `Case ID`, 
-        coalesce(demo.breed,'') AS Breed , 
-        coalesce(diag.disease_term,'') AS Diagnosis , 
-        coalesce(s.clinical_study_designation,'') AS `Study Code`</t>
-  </si>
-  <si>
     <t>MATCH (f:file)--&gt;(s:study)
-MATCH (s)&lt;--(c:case)&lt;--(demo:demographic), (c)&lt;--(diag:diagnosis),(samp:sample)--&gt;(c)
-WHERE s.clinical_study_designation  IN ['OSA01'] and s.clinical_study_type in ['Transcriptomics']  and demo.sex in ['Female'] and samp.sample_site in ['Bone'] and samp.specific_sample_pathology in ['Osteoblastic Osteosarcoma']
-WITH DISTINCT f, s,samp,c
-RETURN 
+MATCH (s)&lt;--(c:case)&lt;--(demo:demographic), (c)&lt;--(diag:diagnosis)
+MATCH (f)-[*]-&gt;(samp:sample)
+WHERE s.clinical_study_designation  IN ['OSA01'] and s.clinical_study_type in ['Genomics']  and demo.sex in ['Female'] and samp.sample_site in ['Bone'] and samp.specific_sample_pathology in ['Osteoblastic Osteosarcoma']
+WITH DISTINCT f, s, c, demo, diag
+WITH
+        f, c, demo, diag, s,
+        ['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
+        toInteger(floor(log(f.file_size)/log(1024))) as i,
+        2 as precision
+WITH    
+        f, c, demo, diag, s,
+        f.file_size /(1024^i) AS value, 10^precision AS factor,
+        units[i] as unit
+        WITH    
+        f,  c, demo, diag, s, unit,
+        round(factor * value)/factor AS size
+RETURN DISTINCT
   coalesce(f.file_name, '') AS `File Name`,
   coalesce(f.file_type, '') AS `File Type`,
   coalesce("study", '') AS `Association`,
   coalesce(f.file_description, '') AS `Description`,
-  coalesce(f.file_format, '') AS `File Format`,
-  coalesce(f.file_size, '') AS `Size`,
+  coalesce(f.file_format, '') AS  Format,
+  CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS Size,
   coalesce(s.clinical_study_designation,'') AS `Study Code`</t>
-  </si>
-  <si>
-    <t>TC05_Canine_StudyOSA01-StudyType_Sex_SampSite_SampPathology_Neo4jData.xlsx</t>
-  </si>
-  <si>
-    <t>TC05_Canine_StudyOSA01-StudyType_Sex_SampSite_SampPathology_WebData.xlsx</t>
   </si>
   <si>
     <t>MATCH (s:study)
 MATCH (demo:demographic) 
 MATCH (diag:diagnosis)
 MATCH (p:program)&lt;-[*]-(s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic), (c)&lt;--(diag:diagnosis), (samp:sample)--&gt;(c)
-WHERE s.clinical_study_designation  IN ['OSA01'] and s.clinical_study_type in ['Transcriptomics']  and demo.sex in ['Female'] and samp.sample_site in ['Bone'] and samp.specific_sample_pathology in ['Osteoblastic Osteosarcoma']
+WHERE s.clinical_study_designation  IN ['OSA01'] and s.clinical_study_type in ['Genomics']  and demo.sex in ['Female'] and samp.sample_site in ['Bone'] and samp.specific_sample_pathology in ['Osteoblastic Osteosarcoma']
 OPTIONAL MATCH (s)&lt;-[:member_of]-(c:case)
 OPTIONAL MATCH (c)&lt;-[:of_case]-(samp:sample)&lt;-[:of_sample]-(f:file)
 OPTIONAL MATCH (sf:file)--&gt;(s)
@@ -148,6 +145,39 @@
 count(DISTINCT(c.case_id)) as Cases,
 count(DISTINCT(samp)) as Samples , 
 count(DISTINCT(f)) as CaseFiles , count(distinct sf) AS `Study Files`</t>
+  </si>
+  <si>
+    <t>MATCH (c:case)&lt;--(demo:demographic)
+MATCH (s:study)&lt;-[*]-(c)&lt;--(diag:diagnosis)
+MATCH (samp:sample)--&gt;(c)
+MATCH (f:file)-[*]-&gt;(c)
+MATCH (f)--&gt;(parent)
+WHERE s.clinical_study_designation  IN ['OSA01'] and s.clinical_study_type in ['Genomics']  and demo.sex in ['Female']
+ and samp.sample_site in ['Bone'] and samp.specific_sample_pathology in ['Osteoblastic Osteosarcoma']
+OPTIONAL MATCH (f)-[*]-&gt;(smpl:sample)
+WITH DISTINCT f, smpl, parent, c, diag, demo, s,
+        ['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
+        toInteger(floor(log(f.file_size)/log(1024))) as i,
+        2 as precision
+WITH
+        f, smpl, parent, c, diag, demo, s,
+        f.file_size /(1024^i) AS value,
+        10^precision AS factor,
+        units[i] as unit
+WITH
+        f, smpl, parent, c, diag, demo, s, unit,
+        round(factor * value)/factor AS size
+RETURN distinct
+        coalesce(f.file_name, '') AS `File Name`,
+        coalesce(f.file_type, '') AS `File Type`,
+        coalesce(labels(parent)[0], '') AS `Association`,
+        coalesce(f.file_description, '') AS `Description`,
+        coalesce(f.file_format, '') AS `Format`,
+        CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS Size,
+        coalesce(smpl.sample_id, '') AS `Sample ID`,
+        coalesce(c.case_id, '') AS `Case ID`,
+        coalesce(demo.breed,'') AS Breed ,
+        coalesce(diag.disease_term,'') AS Diagnosis</t>
   </si>
 </sst>
 </file>
@@ -528,7 +558,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="19.5" x14ac:dyDescent="0.3"/>
@@ -567,16 +597,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="390" x14ac:dyDescent="0.3">
@@ -584,50 +614,50 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="4" spans="1:5" ht="390" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="390" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
